--- a/development/기존자료 검증 104 Dreame_FAQ_Sample.xlsx
+++ b/development/기존자료 검증 104 Dreame_FAQ_Sample.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\지윤환\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\지윤환\Desktop\develop\eibe_cs\development\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB73B39-60E0-4269-98DA-CD973C8EDC46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81947725-42A8-481C-AEAD-12201C4C9F17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Dreame FAQ Template" sheetId="1" r:id="rId1"/>
+    <sheet name="FAQ" sheetId="1" r:id="rId1"/>
+    <sheet name="특이사항" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="227">
   <si>
     <t>카테고리</t>
   </si>
@@ -1107,6 +1108,29 @@
   </si>
   <si>
     <t>스테이션 먼지 더스트백 용량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모델명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>항목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특이사항 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X50Master</t>
+  </si>
+  <si>
+    <t>기동방식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직배수 전용으로 물통 사용 불가, 반드시 배관 설치 필요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1463,9 +1487,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2960,4 +2982,40 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7525B77F-D2E0-4D21-BF7D-BAB530E0941A}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>